--- a/biology/Botanique/Pseudocraterellus_undulatus/Pseudocraterellus_undulatus.xlsx
+++ b/biology/Botanique/Pseudocraterellus_undulatus/Pseudocraterellus_undulatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pseudocraterellus undulatus, la Chanterelle sinueuse, est une espèce de champignons basidiomycètes de la famille des Cantharellaceae et du genre Pseudocraterellus.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est proche par son aspect de la Craterellus tubaeformis. De forme cornucopiée, le chapeau est brun à beige et les fausses lames sont grises.
 La variété crispus, plus pâle et hygrophile a la marge striée. C'est un bon comestible.
@@ -543,19 +557,90 @@
           <t>Taxinomie et synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Pseudocraterellus undulatus (Pers. 1801[1][réf. incomplète]) Rauschert 1987[2][réf. incomplète]
-Variétés
-Pseudocraterellus sinuosus var. pusillus (Fr.) Courtec. 1986 (synonyme)
-Pseudocraterellus undulatus var. crispus (Bull.) Courtec. 1994[3] (synonyme)
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pseudocraterellus undulatus (Pers. 1801[réf. incomplète]) Rauschert 1987[réf. incomplète]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pseudocraterellus_undulatus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pseudocraterellus_undulatus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie et synonymes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Variétés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Pseudocraterellus sinuosus var. pusillus (Fr.) Courtec. 1986 (synonyme)
+Pseudocraterellus undulatus var. crispus (Bull.) Courtec. 1994 (synonyme)
 Pseudocraterellus undulatus var. sinuosus (Fr.) Bon 1993 (synonyme)
-Pseudocraterellus undulatus var. undulatus (Pers.) Courtec. 1987[4] (synonyme)
-Synonymes
-Pseudocraterellus sinuosus (Fr.) Corner 1958 (synonyme)
+Pseudocraterellus undulatus var. undulatus (Pers.) Courtec. 1987 (synonyme)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pseudocraterellus_undulatus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pseudocraterellus_undulatus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie et synonymes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Pseudocraterellus sinuosus (Fr.) Corner 1958 (synonyme)
 Cantharellus pusillus (Fr.) Fr. 1821 (synonyme)
 Cantharellus sinuosus Fr. 1821 (synonyme)
-Cantharellus undulatus (Pers.) Fr. 1821[5][réf. incomplète] (synonyme)
+Cantharellus undulatus (Pers.) Fr. 1821[réf. incomplète] (synonyme)
 Craterella crispa (Bull.) Pers. 1796 (synonyme)
 Craterellus crispus (Bull.) Berk. 1860 (synonyme)
 Craterellus pusillus (Fr.) Fr. 1838 (synonyme)
@@ -569,7 +654,7 @@
 Merulius sinuosus (Fr.) Pers. 1825 (synonyme)
 Merulius tubiformis var. crispus (Bull.) L. Marchand 1828 (synonyme)
 Merulius tubiformis var. sinuosus (Fr.) Pers. 1825 (synonyme)
-Merulius undulatus Pers. 1801[1][réf. incomplète] (synonyme)
+Merulius undulatus Pers. 1801[réf. incomplète] (synonyme)
 Merulius undulatus [Quoi ?] undulatus Pers. 1801 (synonyme)
 Thelephora undulata (Sw.) Fr. 1828 (synonyme)
 Trombetta pusilla (Fr.) Kuntze 1891 (synonyme)
